--- a/merry/�ҵ�lis.xlsx
+++ b/merry/�ҵ�lis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15300" windowHeight="9330"/>
@@ -11,7 +11,7 @@
     <sheet name="准备" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -616,7 +616,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -633,7 +633,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -762,90 +762,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1125,10 +1057,10 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="12" t="s">
@@ -1688,17 +1620,17 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1764,7 +1696,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="45">
+    <row r="4" spans="1:9" ht="40.5">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1949,7 +1881,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="15">
       <c r="G18" s="7" t="s">
         <v>82</v>
       </c>
@@ -2016,7 +1948,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="75">
+    <row r="25" spans="1:9" ht="54">
       <c r="G25" s="6" t="s">
         <v>92</v>
       </c>
@@ -2172,7 +2104,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
